--- a/target/test-classes/excel testcases/TestCase and feature file excel (1).xlsx
+++ b/target/test-classes/excel testcases/TestCase and feature file excel (1).xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beena\IdeaProjects\web1\src\test\resources\excel testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beena\IdeaProjects\web1\target\test-classes\excel testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B175A9-7DF3-4747-AB7A-4D248BE00B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F25938B-9FA6-41DD-8776-25C5183D584E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
     <sheet name="Feature file" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="137">
   <si>
     <t xml:space="preserve">Browser </t>
   </si>
@@ -499,6 +500,54 @@
   </si>
   <si>
     <t>Then Clk on Confirm</t>
+  </si>
+  <si>
+    <t>7   Scenario:Verify that Guest User Should able to add comment on nopcom website.</t>
+  </si>
+  <si>
+    <t>when User is on homepage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when User is on homepage </t>
+  </si>
+  <si>
+    <t>And User should  scroll down and clk on Details</t>
+  </si>
+  <si>
+    <t>And User enter the title</t>
+  </si>
+  <si>
+    <t>And User enter comment</t>
+  </si>
+  <si>
+    <t>And User clk on new comment</t>
+  </si>
+  <si>
+    <t>Then user get a message news comment is added successfully.</t>
+  </si>
+  <si>
+    <t>8  Scenario: User should able to change the currency</t>
+  </si>
+  <si>
+    <t>when user is on homepage.</t>
+  </si>
+  <si>
+    <t>And  scroll down   currency  Euror to USDollar</t>
+  </si>
+  <si>
+    <t>And scroll down   currency  US Dollar to Euro</t>
+  </si>
+  <si>
+    <t>Then user can see change  in the currency</t>
+  </si>
+  <si>
+    <t>9 Scenario: Verify User should able to add cart button on all featured products</t>
+  </si>
+  <si>
+    <t>And scroll down to featued product</t>
+  </si>
+  <si>
+    <t>Then User can see add to cart button present on  one product only.</t>
   </si>
 </sst>
 </file>
@@ -1101,14 +1150,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1471,8 +1520,8 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,17 +1570,17 @@
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1691,7 +1740,7 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1728,7 +1777,7 @@
       <c r="F14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="20" t="s">
         <v>86</v>
       </c>
       <c r="H14" s="4"/>
@@ -1858,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C8F667-A200-4F66-BD4E-0E6C1C2BCEA7}">
-  <dimension ref="A1:A70"/>
+  <dimension ref="A1:A91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,6 +2213,91 @@
         <v>120</v>
       </c>
     </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
